--- a/wti模型3.0/eta/美国取暖油裂解_月度数据.xlsx
+++ b/wti模型3.0/eta/美国取暖油裂解_月度数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>33.6</v>
+        <v>27.2</v>
       </c>
     </row>
     <row r="3">
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>34.1</v>
+        <v>34.7</v>
       </c>
       <c r="C3" t="n">
-        <v>32.2</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="4">
@@ -484,7 +484,7 @@
         <v>34.7</v>
       </c>
       <c r="C4" t="n">
-        <v>32.7</v>
+        <v>32.8</v>
       </c>
     </row>
     <row r="5">
@@ -549,7 +549,7 @@
         <v>25.8</v>
       </c>
       <c r="C9" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="10">
@@ -562,7 +562,7 @@
         <v>25.5</v>
       </c>
       <c r="C10" t="n">
-        <v>33.9</v>
+        <v>33.8</v>
       </c>
     </row>
     <row r="11">
@@ -601,7 +601,7 @@
         <v>23.7</v>
       </c>
       <c r="C13" t="n">
-        <v>28.4</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="14">
@@ -705,7 +705,7 @@
         <v>26.1</v>
       </c>
       <c r="C21" t="n">
-        <v>27</v>
+        <v>27.1</v>
       </c>
     </row>
     <row r="22">
@@ -718,7 +718,7 @@
         <v>31.7</v>
       </c>
       <c r="C22" t="n">
-        <v>30.9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23">
